--- a/industry/dsi_lawyer/data/OrgPerson.xlsx
+++ b/industry/dsi_lawyer/data/OrgPerson.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>序号</t>
   </si>
@@ -27,12 +27,18 @@
     <t>上级组织</t>
   </si>
   <si>
+    <t>组织分类</t>
+  </si>
+  <si>
     <t>恩德律师事务所</t>
   </si>
   <si>
     <t>推广组</t>
   </si>
   <si>
+    <t>HR组织</t>
+  </si>
+  <si>
     <t>电话组</t>
   </si>
   <si>
@@ -43,6 +49,9 @@
   </si>
   <si>
     <t>姓名</t>
+  </si>
+  <si>
+    <t>部门</t>
   </si>
   <si>
     <t>账号</t>
@@ -1122,7 +1131,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1141,7 +1150,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:2">
@@ -1149,51 +1160,63 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1208,177 +1231,177 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1416,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1404,18 +1427,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="6:7">
@@ -1423,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="6:7">
@@ -1431,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="6:7">
@@ -1439,7 +1462,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="6:7">
@@ -1447,7 +1470,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="6:7">
@@ -1455,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/industry/dsi_lawyer/data/OrgPerson.xlsx
+++ b/industry/dsi_lawyer/data/OrgPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12920" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="组织" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>序号</t>
   </si>
@@ -48,9 +48,15 @@
     <t>行政组</t>
   </si>
   <si>
+    <t>鑫诺律师事务所</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
+    <t>律所</t>
+  </si>
+  <si>
     <t>部门</t>
   </si>
   <si>
@@ -154,6 +160,18 @@
   </si>
   <si>
     <t>djl123</t>
+  </si>
+  <si>
+    <t>刘钦</t>
+  </si>
+  <si>
+    <t>张益</t>
+  </si>
+  <si>
+    <t>李桦</t>
+  </si>
+  <si>
+    <t>钟娇</t>
   </si>
   <si>
     <t>TODO</t>
@@ -186,9 +204,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,14 +232,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,121 +345,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,25 +376,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,7 +514,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,43 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,97 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,6 +591,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -586,22 +619,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,184 +652,185 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1128,32 +1158,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="3" width="14.1875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
@@ -1216,6 +1246,28 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1228,180 +1280,274 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="14.1875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1427,18 +1573,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="6:7">
@@ -1446,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="6:7">
@@ -1454,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="6:7">
@@ -1462,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="6:7">
@@ -1470,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="6:7">
@@ -1478,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/industry/dsi_lawyer/data/OrgPerson.xlsx
+++ b/industry/dsi_lawyer/data/OrgPerson.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
-  <si>
-    <t>序号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>组织</t>
   </si>
@@ -27,15 +24,27 @@
     <t>上级组织</t>
   </si>
   <si>
+    <t>组织类型</t>
+  </si>
+  <si>
     <t>组织分类</t>
   </si>
   <si>
     <t>恩德律师事务所</t>
   </si>
   <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>业务组,法人实体,HR组织,经营单位</t>
+  </si>
+  <si>
     <t>推广组</t>
   </si>
   <si>
+    <t>部门</t>
+  </si>
+  <si>
     <t>HR组织</t>
   </si>
   <si>
@@ -48,7 +57,7 @@
     <t>行政组</t>
   </si>
   <si>
-    <t>鑫诺律师事务所</t>
+    <t>邦民律师事务所</t>
   </si>
   <si>
     <t>姓名</t>
@@ -57,9 +66,6 @@
     <t>律所</t>
   </si>
   <si>
-    <t>部门</t>
-  </si>
-  <si>
     <t>账号</t>
   </si>
   <si>
@@ -93,6 +99,84 @@
     <t>lih123</t>
   </si>
   <si>
+    <t>殷祖法</t>
+  </si>
+  <si>
+    <t>yinjf</t>
+  </si>
+  <si>
+    <t>yin123</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>wangp</t>
+  </si>
+  <si>
+    <t>wang123</t>
+  </si>
+  <si>
+    <t>王晓龙</t>
+  </si>
+  <si>
+    <t>wangxl</t>
+  </si>
+  <si>
+    <t>蹇昔君</t>
+  </si>
+  <si>
+    <t>qianxj</t>
+  </si>
+  <si>
+    <t>qxj123</t>
+  </si>
+  <si>
+    <t>黄永林</t>
+  </si>
+  <si>
+    <t>huangyl</t>
+  </si>
+  <si>
+    <t>hyl123</t>
+  </si>
+  <si>
+    <t>刘鸿怡</t>
+  </si>
+  <si>
+    <t>liuhy</t>
+  </si>
+  <si>
+    <t>lhy123</t>
+  </si>
+  <si>
+    <t>段江林</t>
+  </si>
+  <si>
+    <t>duanjl</t>
+  </si>
+  <si>
+    <t>djl123</t>
+  </si>
+  <si>
+    <t>刘钦</t>
+  </si>
+  <si>
+    <t>liuq</t>
+  </si>
+  <si>
+    <t>lq123</t>
+  </si>
+  <si>
+    <t>张益</t>
+  </si>
+  <si>
+    <t>zhangy</t>
+  </si>
+  <si>
+    <t>zy123</t>
+  </si>
+  <si>
     <t>林先莉</t>
   </si>
   <si>
@@ -102,76 +186,19 @@
     <t>linxl123</t>
   </si>
   <si>
-    <t>殷祖法</t>
-  </si>
-  <si>
-    <t>yinjf</t>
-  </si>
-  <si>
-    <t>yin123</t>
-  </si>
-  <si>
-    <t>王平</t>
-  </si>
-  <si>
-    <t>wangp</t>
-  </si>
-  <si>
-    <t>wang123</t>
-  </si>
-  <si>
-    <t>王晓龙</t>
-  </si>
-  <si>
-    <t>wangxl</t>
-  </si>
-  <si>
-    <t>蹇昔君</t>
-  </si>
-  <si>
-    <t>qianxj</t>
-  </si>
-  <si>
-    <t>qxj123</t>
-  </si>
-  <si>
-    <t>黄永林</t>
-  </si>
-  <si>
-    <t>huangyl</t>
-  </si>
-  <si>
-    <t>hyl123</t>
-  </si>
-  <si>
-    <t>刘鸿怡</t>
-  </si>
-  <si>
-    <t>liuhy</t>
-  </si>
-  <si>
-    <t>lhy123</t>
-  </si>
-  <si>
-    <t>段江林</t>
-  </si>
-  <si>
-    <t>duanjl</t>
-  </si>
-  <si>
-    <t>djl123</t>
-  </si>
-  <si>
-    <t>刘钦</t>
-  </si>
-  <si>
-    <t>张益</t>
-  </si>
-  <si>
     <t>李桦</t>
   </si>
   <si>
+    <t>lih</t>
+  </si>
+  <si>
+    <t>lh123</t>
+  </si>
+  <si>
     <t>钟娇</t>
+  </si>
+  <si>
+    <t>zhongj</t>
   </si>
   <si>
     <t>TODO</t>
@@ -208,7 +235,7 @@
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +248,28 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Noto Sans CJK SC"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Noto Sans CJK SC"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体-简"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -367,7 +416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,6 +431,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -567,11 +622,39 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -678,152 +761,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,6 +920,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,118 +1254,141 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="3" width="14.1875" customWidth="1"/>
+    <col min="1" max="2" width="14.1875" customWidth="1"/>
+    <col min="3" max="4" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="15.2" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" ht="16.4" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="16.4" spans="1:4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" ht="17.6" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="9" ht="16.4" spans="3:3">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" ht="16.4" spans="3:3">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" ht="16.4" spans="3:3">
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1280,10 +1399,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1293,261 +1412,274 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
+      <c r="A6" t="s">
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>31</v>
+      <c r="A7" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
+      <c r="A9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>45</v>
+      <c r="A12" t="s">
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>49</v>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1573,18 +1705,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="6:7">
@@ -1592,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="6:7">
@@ -1600,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="6:7">
@@ -1608,7 +1740,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="6:7">
@@ -1616,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="6:7">
@@ -1624,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/industry/dsi_lawyer/data/OrgPerson.xlsx
+++ b/industry/dsi_lawyer/data/OrgPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13220" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13220"/>
   </bookViews>
   <sheets>
     <sheet name="组织" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>恩德律师事务所</t>
   </si>
   <si>
-    <t>公司</t>
+    <t>律所</t>
   </si>
   <si>
     <t>业务组,法人实体,HR组织,经营单位</t>
@@ -48,22 +48,22 @@
     <t>HR组织</t>
   </si>
   <si>
+    <t>电销组</t>
+  </si>
+  <si>
+    <t>办案组</t>
+  </si>
+  <si>
+    <t>行政组</t>
+  </si>
+  <si>
+    <t>邦民律师事务所</t>
+  </si>
+  <si>
     <t>电话组</t>
   </si>
   <si>
-    <t>办案组</t>
-  </si>
-  <si>
-    <t>行政组</t>
-  </si>
-  <si>
-    <t>邦民律师事务所</t>
-  </si>
-  <si>
     <t>姓名</t>
-  </si>
-  <si>
-    <t>律所</t>
   </si>
   <si>
     <t>账号</t>
@@ -235,7 +235,7 @@
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +250,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <name val="宋体-简"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <charset val="1"/>
     </font>
@@ -261,17 +266,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体-简"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -416,7 +410,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,12 +425,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -622,39 +610,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -761,152 +721,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,19 +882,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1256,7 +1214,7 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1266,7 +1224,7 @@
     <col min="3" max="4" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:4">
+    <row r="1" ht="17.6" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1276,15 +1234,15 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="16.4" spans="1:4">
+    <row r="2" ht="17.6" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1298,10 +1256,10 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1312,10 +1270,10 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1326,10 +1284,10 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1340,18 +1298,18 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="16.4" spans="1:4">
+    <row r="7" ht="17.6" spans="1:4">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1360,35 +1318,35 @@
     </row>
     <row r="8" ht="17.6" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="16.4" spans="3:3">
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" ht="16.4" spans="3:3">
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" ht="16.4" spans="3:3">
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="11"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="11"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="3:3">
-      <c r="C14" s="11"/>
+      <c r="C14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1401,8 +1359,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B16" sqref="C8 B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1412,10 +1370,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -1452,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -1486,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1503,7 +1461,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -1520,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -1537,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
@@ -1554,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -1571,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>42</v>
@@ -1588,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -1605,7 +1563,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1622,7 +1580,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -1639,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>54</v>

--- a/industry/dsi_lawyer/data/OrgPerson.xlsx
+++ b/industry/dsi_lawyer/data/OrgPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13220"/>
+    <workbookView windowWidth="28800" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="组织" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,9 @@
     <t>业务组,法人实体,HR组织,经营单位</t>
   </si>
   <si>
+    <t>邦民律师事务所</t>
+  </si>
+  <si>
     <t>推广组</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
   </si>
   <si>
     <t>行政组</t>
-  </si>
-  <si>
-    <t>邦民律师事务所</t>
   </si>
   <si>
     <t>电话组</t>
@@ -230,16 +230,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -266,17 +266,123 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -284,128 +390,22 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -425,19 +425,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,163 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,6 +616,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,9 +660,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,17 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -692,177 +716,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -895,55 +895,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1215,12 +1215,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="14.1875" customWidth="1"/>
+    <col min="1" max="1" width="14.1923076923077" customWidth="1"/>
+    <col min="2" max="2" width="17.6153846153846" customWidth="1"/>
     <col min="3" max="4" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1253,28 +1254,25 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:4">
@@ -1285,10 +1283,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="17.6" spans="1:4">
@@ -1299,21 +1297,24 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:4">
       <c r="A7" t="s">
         <v>13</v>
       </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:4">
@@ -1321,22 +1322,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="16.4" spans="3:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
       <c r="C9" s="9"/>
     </row>
-    <row r="10" ht="16.4" spans="3:3">
+    <row r="10" spans="3:3">
       <c r="C10" s="9"/>
     </row>
-    <row r="11" ht="16.4" spans="3:3">
+    <row r="11" spans="3:3">
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="3:3">
@@ -1360,12 +1361,12 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B16" sqref="C8 B16"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="14.1875" customWidth="1"/>
+    <col min="2" max="2" width="14.1923076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1376,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -1393,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1427,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1560,7 +1561,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1577,7 +1578,7 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1594,7 +1595,7 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1611,10 +1612,10 @@
         <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -1628,10 +1629,10 @@
         <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
         <v>60</v>
@@ -1655,7 +1656,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>

--- a/industry/dsi_lawyer/data/OrgPerson.xlsx
+++ b/industry/dsi_lawyer/data/OrgPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13420"/>
+    <workbookView windowWidth="28800" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="组织" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,85 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>nie</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>nie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组织名称不能重复</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>nie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+上级组织名称，比如恩德律师事务所；这个名称需要在系统里预先添加
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t>nie:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+组织类型: 律所，部门或其他</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>组织</t>
   </si>
@@ -30,42 +107,36 @@
     <t>组织分类</t>
   </si>
   <si>
+    <t>推广组</t>
+  </si>
+  <si>
     <t>恩德律师事务所</t>
   </si>
   <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>HR组织</t>
+  </si>
+  <si>
+    <t>电销组</t>
+  </si>
+  <si>
+    <t>电话组</t>
+  </si>
+  <si>
+    <t>邦民律师事务所</t>
+  </si>
+  <si>
+    <t>办案组</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
     <t>律所</t>
   </si>
   <si>
-    <t>业务组,法人实体,HR组织,经营单位</t>
-  </si>
-  <si>
-    <t>邦民律师事务所</t>
-  </si>
-  <si>
-    <t>推广组</t>
-  </si>
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>HR组织</t>
-  </si>
-  <si>
-    <t>电销组</t>
-  </si>
-  <si>
-    <t>办案组</t>
-  </si>
-  <si>
-    <t>行政组</t>
-  </si>
-  <si>
-    <t>电话组</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
     <t>账号</t>
   </si>
   <si>
@@ -81,6 +152,15 @@
     <t>zyy123</t>
   </si>
   <si>
+    <t>李欢欢</t>
+  </si>
+  <si>
+    <t>lihh</t>
+  </si>
+  <si>
+    <t>lih123</t>
+  </si>
+  <si>
     <t>殷俊</t>
   </si>
   <si>
@@ -88,15 +168,6 @@
   </si>
   <si>
     <t>yj123</t>
-  </si>
-  <si>
-    <t>李欢欢</t>
-  </si>
-  <si>
-    <t>lihh</t>
-  </si>
-  <si>
-    <t>lih123</t>
   </si>
   <si>
     <t>殷祖法</t>
@@ -235,7 +306,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,12 +323,6 @@
     <font>
       <sz val="12"/>
       <name val="宋体-简"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
       <charset val="1"/>
     </font>
     <font>
@@ -721,152 +786,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,13 +951,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1212,10 +1274,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1243,36 +1305,42 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:4">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:4">
@@ -1280,78 +1348,34 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:4">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:4">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" ht="17.6" spans="1:4">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="9"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="8"/>
+      <c r="C10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1360,285 +1384,285 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="14.1923076923077" customWidth="1"/>
+    <col min="2" max="2" width="17.6153846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
         <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
         <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1664,18 +1688,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="6:7">
@@ -1683,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="6:7">
@@ -1691,7 +1715,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="6:7">
@@ -1699,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="6:7">
@@ -1707,7 +1731,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="6:7">
@@ -1715,7 +1739,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/industry/dsi_lawyer/data/OrgPerson.xlsx
+++ b/industry/dsi_lawyer/data/OrgPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="组织" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>组织</t>
   </si>
@@ -146,12 +146,60 @@
     <t>张月月</t>
   </si>
   <si>
-    <t>zhangyy</t>
-  </si>
-  <si>
     <t>zyy123</t>
   </si>
   <si>
+    <t>殷俊</t>
+  </si>
+  <si>
+    <t>yj123</t>
+  </si>
+  <si>
+    <t>殷祖法</t>
+  </si>
+  <si>
+    <t>yin123</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>wang123</t>
+  </si>
+  <si>
+    <t>黄永林</t>
+  </si>
+  <si>
+    <t>hyl123</t>
+  </si>
+  <si>
+    <t>刘鸿怡</t>
+  </si>
+  <si>
+    <t>lhy123</t>
+  </si>
+  <si>
+    <t>段江林</t>
+  </si>
+  <si>
+    <t>djl123</t>
+  </si>
+  <si>
+    <t>王晓龙</t>
+  </si>
+  <si>
+    <t>wangxl</t>
+  </si>
+  <si>
+    <t>蹇昔君</t>
+  </si>
+  <si>
+    <t>qianxj</t>
+  </si>
+  <si>
+    <t>qxj123</t>
+  </si>
+  <si>
     <t>李欢欢</t>
   </si>
   <si>
@@ -161,97 +209,19 @@
     <t>lih123</t>
   </si>
   <si>
-    <t>殷俊</t>
-  </si>
-  <si>
-    <t>yinj</t>
-  </si>
-  <si>
-    <t>yj123</t>
-  </si>
-  <si>
-    <t>殷祖法</t>
-  </si>
-  <si>
-    <t>yinjf</t>
-  </si>
-  <si>
-    <t>yin123</t>
-  </si>
-  <si>
-    <t>王平</t>
-  </si>
-  <si>
-    <t>wangp</t>
-  </si>
-  <si>
-    <t>wang123</t>
-  </si>
-  <si>
-    <t>王晓龙</t>
-  </si>
-  <si>
-    <t>wangxl</t>
-  </si>
-  <si>
-    <t>蹇昔君</t>
-  </si>
-  <si>
-    <t>qianxj</t>
-  </si>
-  <si>
-    <t>qxj123</t>
-  </si>
-  <si>
-    <t>黄永林</t>
-  </si>
-  <si>
-    <t>huangyl</t>
-  </si>
-  <si>
-    <t>hyl123</t>
-  </si>
-  <si>
-    <t>刘鸿怡</t>
-  </si>
-  <si>
-    <t>liuhy</t>
-  </si>
-  <si>
-    <t>lhy123</t>
-  </si>
-  <si>
-    <t>段江林</t>
-  </si>
-  <si>
-    <t>duanjl</t>
-  </si>
-  <si>
-    <t>djl123</t>
-  </si>
-  <si>
     <t>刘钦</t>
   </si>
   <si>
-    <t>liuq</t>
-  </si>
-  <si>
     <t>lq123</t>
   </si>
   <si>
     <t>张益</t>
   </si>
   <si>
-    <t>zhangy</t>
-  </si>
-  <si>
     <t>zy123</t>
   </si>
   <si>
     <t>林先莉</t>
-  </si>
-  <si>
-    <t>linxl</t>
   </si>
   <si>
     <t>linxl123</t>
@@ -301,12 +271,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +308,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -353,6 +337,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -362,23 +400,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,35 +430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -430,49 +439,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -490,43 +471,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,31 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,91 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,8 +668,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,37 +728,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,24 +754,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -786,162 +767,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -958,54 +942,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1272,7 +1256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1280,97 +1264,97 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.1923076923077" customWidth="1"/>
-    <col min="2" max="2" width="17.6153846153846" customWidth="1"/>
+    <col min="1" max="1" width="14.1916666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.6166666666667" customWidth="1"/>
     <col min="3" max="4" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="17.6" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="17.6" spans="1:4">
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="17.6" spans="1:4">
+    <row r="5" ht="14.25" spans="1:4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="8"/>
+    <row r="6" ht="15" spans="3:3">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" ht="15" spans="3:3">
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="7"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="7"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="7"/>
+      <c r="C10" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1380,17 +1364,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.6153846153846" customWidth="1"/>
+    <col min="2" max="2" width="17.6166666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1420,33 +1405,33 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1">
+        <v>15023832398</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13627608712</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1454,16 +1439,16 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
+      <c r="D4" s="1">
+        <v>19922877559</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
+      <c r="A5" t="s">
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1471,16 +1456,16 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>28</v>
+      <c r="D5" s="1">
+        <v>17723009729</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1488,16 +1473,16 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
+      <c r="D6" s="1">
+        <v>13368183427</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1505,16 +1490,16 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
+      <c r="D7" s="1">
+        <v>15111953122</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1522,16 +1507,16 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>36</v>
+      <c r="D8" s="1">
+        <v>18523168962</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1539,16 +1524,16 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
-        <v>39</v>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1556,33 +1541,33 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
+      <c r="A11" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1590,16 +1575,16 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
+      <c r="D12" s="1">
+        <v>18623627269</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1607,16 +1592,16 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
+      <c r="D13" s="1">
+        <v>18680882207</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
+      <c r="A14" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1624,16 +1609,16 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
+      <c r="D14" s="1">
+        <v>17602328585</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1641,16 +1626,16 @@
       <c r="C15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>56</v>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1658,11 +1643,11 @@
       <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1672,7 +1657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1680,7 +1665,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
@@ -1688,18 +1673,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="6:7">
@@ -1707,7 +1692,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="6:7">
@@ -1715,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="6:7">
@@ -1723,7 +1708,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="6:7">
@@ -1731,7 +1716,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="6:7">
@@ -1739,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/industry/dsi_lawyer/data/OrgPerson.xlsx
+++ b/industry/dsi_lawyer/data/OrgPerson.xlsx
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>组织</t>
   </si>
@@ -240,6 +240,48 @@
   </si>
   <si>
     <t>zhongj</t>
+  </si>
+  <si>
+    <t>姜啸龙</t>
+  </si>
+  <si>
+    <t>jxl123</t>
+  </si>
+  <si>
+    <t>陈芝兰</t>
+  </si>
+  <si>
+    <t>czl123</t>
+  </si>
+  <si>
+    <t>周子健</t>
+  </si>
+  <si>
+    <t>zzj123</t>
+  </si>
+  <si>
+    <t>李家东</t>
+  </si>
+  <si>
+    <t>ljd123</t>
+  </si>
+  <si>
+    <t>凤渝</t>
+  </si>
+  <si>
+    <t>fy124</t>
+  </si>
+  <si>
+    <t>宋娇</t>
+  </si>
+  <si>
+    <t>sj125</t>
+  </si>
+  <si>
+    <t>高境</t>
+  </si>
+  <si>
+    <t>gj126</t>
   </si>
   <si>
     <t>TODO</t>
@@ -271,8 +313,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -309,14 +351,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +379,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -345,101 +479,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,12 +513,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -484,174 +694,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,8 +710,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,6 +759,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -712,56 +804,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -770,145 +812,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,10 +1408,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1505,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>18523168962</v>
@@ -1648,6 +1690,125 @@
       </c>
       <c r="E16" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>18580540530</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>18375772397</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>13996249154</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>13658351508</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>15310383607</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>15025609317</v>
+      </c>
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>15294249056</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1673,18 +1834,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="6:7">
@@ -1692,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="6:7">
@@ -1700,7 +1861,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="6:7">
@@ -1708,7 +1869,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="6:7">
@@ -1716,7 +1877,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="6:7">
@@ -1724,7 +1885,7 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/industry/dsi_lawyer/data/OrgPerson.xlsx
+++ b/industry/dsi_lawyer/data/OrgPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="组织" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>组织</t>
   </si>
@@ -313,12 +313,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +333,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体-简"/>
       <charset val="1"/>
@@ -344,7 +350,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,8 +417,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,105 +485,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -478,25 +492,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -513,6 +508,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -525,25 +580,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,55 +670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,85 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,8 +705,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,9 +737,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,26 +785,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -789,172 +799,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,68 +965,71 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1298,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -1306,97 +1304,97 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.1916666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.6166666666667" customWidth="1"/>
+    <col min="1" max="1" width="14.1923076923077" customWidth="1"/>
+    <col min="2" max="2" width="17.6153846153846" customWidth="1"/>
     <col min="3" max="4" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="17.6" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="17.6" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" ht="17.6" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" ht="17.6" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" ht="17.6" spans="1:4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="3:3">
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" ht="15" spans="3:3">
-      <c r="C7" s="9"/>
+    <row r="6" spans="3:3">
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="8"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="8"/>
+      <c r="C10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1406,17 +1404,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.6166666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.6153846153846" customWidth="1"/>
     <col min="4" max="4" width="12.625"/>
   </cols>
   <sheetData>
@@ -1505,7 +1503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1522,7 +1520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1539,7 +1537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1573,8 +1571,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:5">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
@@ -1818,7 +1816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1826,7 +1824,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>

--- a/industry/dsi_lawyer/data/OrgPerson.xlsx
+++ b/industry/dsi_lawyer/data/OrgPerson.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="组织" sheetId="1" r:id="rId1"/>
@@ -313,16 +313,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -349,16 +349,63 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -366,113 +413,74 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -480,16 +488,8 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -508,187 +508,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,6 +699,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -721,6 +745,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -731,26 +770,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,32 +789,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,148 +804,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -981,55 +981,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1304,10 +1304,10 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.1923076923077" customWidth="1"/>
-    <col min="2" max="2" width="17.6153846153846" customWidth="1"/>
+    <col min="1" max="1" width="14.1953125" customWidth="1"/>
+    <col min="2" max="2" width="17.6171875" customWidth="1"/>
     <col min="3" max="4" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1381,10 +1381,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" ht="16.4" spans="3:3">
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" ht="16.4" spans="3:3">
       <c r="C7" s="10"/>
     </row>
     <row r="8" spans="3:3">
@@ -1409,12 +1409,12 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.6153846153846" customWidth="1"/>
+    <col min="2" max="2" width="17.6171875" customWidth="1"/>
     <col min="4" max="4" width="12.625"/>
   </cols>
   <sheetData>
@@ -1824,7 +1824,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
